--- a/tempContracts.xlsx
+++ b/tempContracts.xlsx
@@ -384,7 +384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -412,6 +414,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>123123</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -423,6 +428,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>123123</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -433,6 +441,9 @@
       </c>
       <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4">
+        <v>222332</v>
       </c>
     </row>
   </sheetData>
